--- a/cod/新建文件夹/cycles_T_Q.xlsx
+++ b/cod/新建文件夹/cycles_T_Q.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>cycle      T</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,22 @@
   </si>
   <si>
     <t>二次拟合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.410.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85.10.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.610.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.610.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,20 +604,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,29 +658,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -938,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:W57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -949,30 +983,30 @@
   <sheetData>
     <row r="1" spans="2:15" ht="30" customHeight="1"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" thickBot="1">
-      <c r="C2" s="27">
+      <c r="C2" s="36">
         <v>0</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36">
         <v>10</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36">
         <v>20</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36">
         <v>30</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36">
         <v>40</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36">
         <v>50</v>
       </c>
-      <c r="N2" s="28"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="2:15" ht="24" customHeight="1" thickTop="1" thickBot="1">
       <c r="B3" s="2">
@@ -1154,30 +1188,30 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="38">
         <v>0</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39">
+      <c r="D12" s="38"/>
+      <c r="E12" s="38">
         <v>10</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39">
+      <c r="F12" s="38"/>
+      <c r="G12" s="38">
         <v>20</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39">
+      <c r="H12" s="38"/>
+      <c r="I12" s="38">
         <v>30</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39">
+      <c r="J12" s="38"/>
+      <c r="K12" s="38">
         <v>40</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39">
+      <c r="L12" s="38"/>
+      <c r="M12" s="38">
         <v>50</v>
       </c>
-      <c r="N12" s="39"/>
+      <c r="N12" s="38"/>
     </row>
     <row r="13" spans="2:15" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="B13" s="2">
@@ -1219,7 +1253,7 @@
       <c r="N13" s="6">
         <v>3226.1</v>
       </c>
-      <c r="O13" s="40">
+      <c r="O13" s="28">
         <v>88</v>
       </c>
     </row>
@@ -1263,7 +1297,7 @@
       <c r="N14" s="6">
         <v>3108.1</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="29">
         <v>82</v>
       </c>
     </row>
@@ -1307,7 +1341,7 @@
       <c r="N15" s="6">
         <v>2988.5</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="29">
         <v>41</v>
       </c>
     </row>
@@ -1351,7 +1385,7 @@
       <c r="N16" s="6">
         <v>2958.4</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="29">
         <v>45</v>
       </c>
     </row>
@@ -1395,7 +1429,7 @@
       <c r="N17" s="6">
         <v>2882.5</v>
       </c>
-      <c r="O17" s="41">
+      <c r="O17" s="29">
         <v>30</v>
       </c>
     </row>
@@ -1439,7 +1473,7 @@
       <c r="N18" s="6">
         <v>2840.8</v>
       </c>
-      <c r="O18" s="41">
+      <c r="O18" s="29">
         <v>25</v>
       </c>
     </row>
@@ -1483,7 +1517,7 @@
       <c r="N19" s="6">
         <v>2728.9</v>
       </c>
-      <c r="O19" s="42">
+      <c r="O19" s="30">
         <v>11</v>
       </c>
     </row>
@@ -1796,7 +1830,7 @@
     <row r="32" spans="2:15" ht="14.25" thickTop="1"/>
     <row r="33" spans="2:23" ht="14.25" thickBot="1"/>
     <row r="34" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C34">
@@ -1825,7 +1859,7 @@
       </c>
     </row>
     <row r="35" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B35" s="29"/>
+      <c r="B35" s="39"/>
       <c r="C35">
         <v>0</v>
       </c>
@@ -1867,7 +1901,7 @@
       </c>
     </row>
     <row r="36" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B36" s="29"/>
+      <c r="B36" s="39"/>
       <c r="C36">
         <v>10</v>
       </c>
@@ -1930,7 +1964,7 @@
       </c>
     </row>
     <row r="37" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B37" s="29"/>
+      <c r="B37" s="39"/>
       <c r="C37">
         <v>10</v>
       </c>
@@ -1993,7 +2027,7 @@
       </c>
     </row>
     <row r="38" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B38" s="29"/>
+      <c r="B38" s="39"/>
       <c r="C38">
         <v>20</v>
       </c>
@@ -2056,7 +2090,7 @@
       </c>
     </row>
     <row r="39" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B39" s="29"/>
+      <c r="B39" s="39"/>
       <c r="C39">
         <v>20</v>
       </c>
@@ -2119,7 +2153,7 @@
       </c>
     </row>
     <row r="40" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B40" s="29"/>
+      <c r="B40" s="39"/>
       <c r="C40">
         <v>30</v>
       </c>
@@ -2182,7 +2216,7 @@
       </c>
     </row>
     <row r="41" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B41" s="29"/>
+      <c r="B41" s="39"/>
       <c r="C41">
         <v>30</v>
       </c>
@@ -2245,7 +2279,7 @@
       </c>
     </row>
     <row r="42" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B42" s="29"/>
+      <c r="B42" s="39"/>
       <c r="C42">
         <v>40</v>
       </c>
@@ -2308,7 +2342,7 @@
       </c>
     </row>
     <row r="43" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B43" s="29"/>
+      <c r="B43" s="39"/>
       <c r="C43">
         <v>40</v>
       </c>
@@ -2335,7 +2369,7 @@
       </c>
     </row>
     <row r="44" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B44" s="29"/>
+      <c r="B44" s="39"/>
       <c r="C44">
         <v>50</v>
       </c>
@@ -2362,7 +2396,7 @@
       </c>
     </row>
     <row r="45" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B45" s="29"/>
+      <c r="B45" s="39"/>
       <c r="C45">
         <v>50</v>
       </c>
@@ -2389,7 +2423,7 @@
       </c>
     </row>
     <row r="46" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="39" t="s">
         <v>19</v>
       </c>
       <c r="C46">
@@ -2418,7 +2452,7 @@
       </c>
     </row>
     <row r="47" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B47" s="29"/>
+      <c r="B47" s="39"/>
       <c r="C47">
         <v>0</v>
       </c>
@@ -2481,7 +2515,7 @@
       </c>
     </row>
     <row r="48" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B48" s="29"/>
+      <c r="B48" s="39"/>
       <c r="C48">
         <v>10</v>
       </c>
@@ -2544,7 +2578,7 @@
       </c>
     </row>
     <row r="49" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B49" s="29"/>
+      <c r="B49" s="39"/>
       <c r="C49">
         <v>10</v>
       </c>
@@ -2607,7 +2641,7 @@
       </c>
     </row>
     <row r="50" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B50" s="29"/>
+      <c r="B50" s="39"/>
       <c r="C50">
         <v>20</v>
       </c>
@@ -2670,7 +2704,7 @@
       </c>
     </row>
     <row r="51" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B51" s="29"/>
+      <c r="B51" s="39"/>
       <c r="C51">
         <v>20</v>
       </c>
@@ -2733,7 +2767,7 @@
       </c>
     </row>
     <row r="52" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B52" s="29"/>
+      <c r="B52" s="39"/>
       <c r="C52">
         <v>30</v>
       </c>
@@ -2796,7 +2830,7 @@
       </c>
     </row>
     <row r="53" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B53" s="29"/>
+      <c r="B53" s="39"/>
       <c r="C53">
         <v>30</v>
       </c>
@@ -2859,7 +2893,7 @@
       </c>
     </row>
     <row r="54" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B54" s="29"/>
+      <c r="B54" s="39"/>
       <c r="C54">
         <v>40</v>
       </c>
@@ -2922,7 +2956,7 @@
       </c>
     </row>
     <row r="55" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B55" s="29"/>
+      <c r="B55" s="39"/>
       <c r="C55">
         <v>40</v>
       </c>
@@ -2949,7 +2983,7 @@
       </c>
     </row>
     <row r="56" spans="2:23" ht="15" thickTop="1" thickBot="1">
-      <c r="B56" s="29"/>
+      <c r="B56" s="39"/>
       <c r="C56">
         <v>50</v>
       </c>
@@ -2976,7 +3010,7 @@
       </c>
     </row>
     <row r="57" spans="2:23" ht="14.25" thickTop="1">
-      <c r="B57" s="29"/>
+      <c r="B57" s="39"/>
       <c r="C57">
         <v>50</v>
       </c>
@@ -3031,7 +3065,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3044,43 +3078,43 @@
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29">
+      <c r="C1" s="39">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39">
         <v>10</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39">
         <v>20</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39">
         <v>30</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39">
         <v>40</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39">
         <v>50</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29">
+      <c r="N1" s="39"/>
+      <c r="O1" s="39">
         <v>60</v>
       </c>
-      <c r="P1" s="29"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B2" s="35">
+      <c r="B2" s="47">
         <v>0</v>
       </c>
       <c r="C2" s="24">
         <v>2722.7</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="33" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="18">
@@ -3127,15 +3161,31 @@
       </c>
     </row>
     <row r="3" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B3" s="36"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="16"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="25">
+        <v>2723.8</v>
+      </c>
+      <c r="D3" s="16">
+        <v>85.08</v>
+      </c>
+      <c r="E3" s="19">
+        <v>2867.2</v>
+      </c>
+      <c r="F3" s="16">
+        <v>85.09</v>
+      </c>
+      <c r="G3" s="19">
+        <v>2981.5</v>
+      </c>
+      <c r="H3">
+        <v>85.11</v>
+      </c>
+      <c r="I3" s="19">
+        <v>3148.7</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="K3" s="19">
         <v>3249.5</v>
       </c>
@@ -3152,25 +3202,51 @@
       <c r="P3" s="12"/>
     </row>
     <row r="4" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B4" s="36"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="16"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="16"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="25">
+        <v>2695.9</v>
+      </c>
+      <c r="D4" s="16">
+        <v>75.05</v>
+      </c>
+      <c r="E4" s="19">
+        <v>2823.4</v>
+      </c>
+      <c r="F4" s="16">
+        <v>75.06</v>
+      </c>
+      <c r="G4" s="19">
+        <v>2987.7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>75.040000000000006</v>
+      </c>
+      <c r="I4" s="19">
+        <v>3117.2</v>
+      </c>
+      <c r="J4" s="16">
+        <v>75.08</v>
+      </c>
+      <c r="K4" s="19">
+        <v>3201.7</v>
+      </c>
+      <c r="L4">
+        <v>75.069999999999993</v>
+      </c>
+      <c r="M4" s="19">
+        <v>3236.4</v>
+      </c>
+      <c r="N4" s="16">
+        <v>75.09</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B5" s="36"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="25"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="22"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="16"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3184,7 +3260,7 @@
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="2:19" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B6" s="36"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="26"/>
       <c r="D6" s="17"/>
       <c r="E6" s="23"/>
@@ -3201,8 +3277,14 @@
       <c r="P6" s="14"/>
     </row>
     <row r="7" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B7" s="32">
+      <c r="B7" s="42">
         <v>100</v>
+      </c>
+      <c r="C7" s="25">
+        <v>2607.4</v>
+      </c>
+      <c r="D7">
+        <v>81.108000000000004</v>
       </c>
       <c r="E7" s="18">
         <v>2781.3</v>
@@ -3210,14 +3292,18 @@
       <c r="F7" s="15">
         <v>81.105999999999995</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="18">
         <v>2910.8</v>
       </c>
       <c r="H7" s="1">
         <v>81.106999999999999</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="15"/>
+      <c r="I7" s="18">
+        <v>3004.6</v>
+      </c>
+      <c r="J7" s="15">
+        <v>81.108999999999995</v>
+      </c>
       <c r="K7" s="18">
         <v>3097.4</v>
       </c>
@@ -3234,7 +3320,7 @@
       <c r="P7" s="11"/>
     </row>
     <row r="8" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B8" s="33"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="25">
         <v>2621.7</v>
       </c>
@@ -3275,22 +3361,48 @@
       <c r="P8" s="12"/>
     </row>
     <row r="9" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="16"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="16"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="25">
+        <v>2645.7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>83.102999999999994</v>
+      </c>
+      <c r="E9" s="34">
+        <v>2812.5</v>
+      </c>
+      <c r="F9" s="16">
+        <v>83.103999999999999</v>
+      </c>
+      <c r="G9" s="19">
+        <v>2926.3</v>
+      </c>
+      <c r="H9">
+        <v>83.105999999999995</v>
+      </c>
+      <c r="I9" s="19">
+        <v>3015.1</v>
+      </c>
+      <c r="J9" s="16">
+        <v>83.100999999999999</v>
+      </c>
+      <c r="K9" s="19">
+        <v>3098</v>
+      </c>
+      <c r="L9" s="16">
+        <v>83.105000000000004</v>
+      </c>
+      <c r="M9" s="19">
+        <v>3123.5</v>
+      </c>
+      <c r="N9" s="16">
+        <v>83.102000000000004</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B10" s="33"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="25"/>
       <c r="D10" s="1"/>
       <c r="E10" s="19"/>
@@ -3307,7 +3419,7 @@
       <c r="P10" s="12"/>
     </row>
     <row r="11" spans="2:19" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B11" s="34"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="26"/>
       <c r="D11" s="13"/>
       <c r="E11" s="20"/>
@@ -3324,7 +3436,7 @@
       <c r="P11" s="14"/>
     </row>
     <row r="12" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B12" s="36">
+      <c r="B12" s="40">
         <v>200</v>
       </c>
       <c r="C12" s="25">
@@ -3336,7 +3448,7 @@
       <c r="E12" s="18">
         <v>2687.4</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="33" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="18">
@@ -3367,41 +3479,89 @@
       <c r="P12" s="12"/>
     </row>
     <row r="13" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B13" s="36"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="16"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="25">
+        <v>2576.8000000000002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43.201000000000001</v>
+      </c>
+      <c r="E13" s="19">
+        <v>2676.9</v>
+      </c>
+      <c r="F13" s="16">
+        <v>43.204999999999998</v>
+      </c>
+      <c r="G13" s="19">
+        <v>2796.8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>43.201999999999998</v>
+      </c>
+      <c r="I13" s="19">
+        <v>2898.3</v>
+      </c>
+      <c r="J13" s="16">
+        <v>43.203000000000003</v>
+      </c>
+      <c r="K13" s="19">
+        <v>2980.6</v>
+      </c>
+      <c r="L13" s="1">
+        <v>43.206000000000003</v>
+      </c>
+      <c r="M13" s="19">
+        <v>3004.5</v>
+      </c>
+      <c r="N13" s="16">
+        <v>43.204000000000001</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="12"/>
     </row>
     <row r="14" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B14" s="36"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="16"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="25">
+        <v>2550.9</v>
+      </c>
+      <c r="D14" s="32">
+        <v>42.204000000000001</v>
+      </c>
+      <c r="E14" s="19">
+        <v>2685.6</v>
+      </c>
+      <c r="F14" s="16">
+        <v>42.203000000000003</v>
+      </c>
+      <c r="G14" s="19">
+        <v>2805.6</v>
+      </c>
+      <c r="H14" s="32">
+        <v>42.206000000000003</v>
+      </c>
+      <c r="I14" s="19">
+        <v>2898.9</v>
+      </c>
+      <c r="J14" s="16">
+        <v>42.207000000000001</v>
+      </c>
+      <c r="K14" s="19">
+        <v>2947.8</v>
+      </c>
+      <c r="L14" s="32">
+        <v>42.201999999999998</v>
+      </c>
+      <c r="M14" s="19">
+        <v>2998.9</v>
+      </c>
+      <c r="N14" s="16">
+        <v>42.204999999999998</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="12"/>
     </row>
     <row r="15" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B15" s="36"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="25"/>
       <c r="D15" s="1"/>
       <c r="E15" s="19"/>
@@ -3418,7 +3578,7 @@
       <c r="P15" s="12"/>
     </row>
     <row r="16" spans="2:19" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B16" s="36"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="25"/>
       <c r="D16" s="1"/>
       <c r="E16" s="20"/>
@@ -3435,7 +3595,7 @@
       <c r="P16" s="12"/>
     </row>
     <row r="17" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B17" s="32">
+      <c r="B17" s="42">
         <v>300</v>
       </c>
       <c r="C17" s="18">
@@ -3478,7 +3638,7 @@
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B18" s="33"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="25">
         <v>2510.9</v>
       </c>
@@ -3519,24 +3679,48 @@
       <c r="P18" s="12"/>
     </row>
     <row r="19" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="16"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="25">
+        <v>2509.5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>47.302999999999997</v>
+      </c>
+      <c r="E19" s="19">
+        <v>2634</v>
+      </c>
+      <c r="F19" s="16">
+        <v>47.302</v>
+      </c>
+      <c r="G19" s="19">
+        <v>2751.3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>47.305</v>
+      </c>
+      <c r="I19" s="19">
+        <v>2831.7</v>
+      </c>
+      <c r="J19" s="16">
+        <v>47.305999999999997</v>
+      </c>
+      <c r="K19" s="19">
+        <v>2898.1</v>
+      </c>
+      <c r="L19" s="32">
+        <v>47.301000000000002</v>
+      </c>
+      <c r="M19" s="19">
+        <v>2944.1</v>
+      </c>
+      <c r="N19" s="16">
+        <v>47.304000000000002</v>
+      </c>
       <c r="O19" s="1"/>
       <c r="P19" s="12"/>
     </row>
     <row r="20" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B20" s="33"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="25"/>
       <c r="D20" s="1"/>
       <c r="E20" s="19"/>
@@ -3553,7 +3737,7 @@
       <c r="P20" s="12"/>
     </row>
     <row r="21" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B21" s="34"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="26"/>
       <c r="D21" s="13"/>
       <c r="E21" s="20"/>
@@ -3570,7 +3754,7 @@
       <c r="P21" s="14"/>
     </row>
     <row r="22" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B22" s="36">
+      <c r="B22" s="40">
         <v>400</v>
       </c>
       <c r="C22" s="25">
@@ -3585,7 +3769,7 @@
       <c r="F22" s="15">
         <v>30.411000000000001</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="18">
         <v>2671.6</v>
       </c>
       <c r="H22" s="1">
@@ -3594,7 +3778,7 @@
       <c r="I22" s="19">
         <v>2749.3</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="27" t="s">
         <v>15</v>
       </c>
       <c r="K22" s="18">
@@ -3613,11 +3797,19 @@
       <c r="P22" s="12"/>
     </row>
     <row r="23" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B23" s="36"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="1"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="25">
+        <v>2446.5</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="19">
+        <v>2570.6999999999998</v>
+      </c>
+      <c r="F23" s="1">
+        <v>31.408000000000001</v>
+      </c>
       <c r="G23" s="19">
         <v>2746.7</v>
       </c>
@@ -3636,25 +3828,41 @@
       <c r="L23" s="1">
         <v>31.407</v>
       </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="16"/>
+      <c r="M23" s="19">
+        <v>2885.3</v>
+      </c>
+      <c r="N23" s="16">
+        <v>31.408999999999999</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="12"/>
     </row>
     <row r="24" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B24" s="36"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="25">
+        <v>2441.5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>32.404000000000003</v>
+      </c>
       <c r="E24" s="19">
         <v>2585.8000000000002</v>
       </c>
       <c r="F24" s="16">
         <v>32.402000000000001</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="G24" s="19">
+        <v>2681.6</v>
+      </c>
+      <c r="H24" s="16">
+        <v>32.405000000000001</v>
+      </c>
+      <c r="I24" s="19">
+        <v>2777.5</v>
+      </c>
+      <c r="J24" s="1">
+        <v>32.405999999999999</v>
+      </c>
       <c r="K24" s="19">
         <v>2802.5</v>
       </c>
@@ -3671,7 +3879,7 @@
       <c r="P24" s="12"/>
     </row>
     <row r="25" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B25" s="36"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="25"/>
       <c r="D25" s="1"/>
       <c r="E25" s="19"/>
@@ -3688,7 +3896,7 @@
       <c r="P25" s="12"/>
     </row>
     <row r="26" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B26" s="36"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="26"/>
       <c r="D26" s="1"/>
       <c r="E26" s="20"/>
@@ -3705,7 +3913,7 @@
       <c r="P26" s="12"/>
     </row>
     <row r="27" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B27" s="32">
+      <c r="B27" s="42">
         <v>500</v>
       </c>
       <c r="C27" s="25">
@@ -3723,7 +3931,7 @@
       <c r="G27" s="19">
         <v>2655.1</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="35" t="s">
         <v>12</v>
       </c>
       <c r="I27" s="18">
@@ -3748,9 +3956,13 @@
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="25">
+        <v>2424.6</v>
+      </c>
+      <c r="D28" s="1">
+        <v>26.506</v>
+      </c>
       <c r="E28" s="19">
         <v>2562.1999999999998</v>
       </c>
@@ -3769,7 +3981,7 @@
       <c r="J28" s="16">
         <v>26.501000000000001</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="19">
         <v>2802.6</v>
       </c>
       <c r="L28" s="1">
@@ -3785,24 +3997,48 @@
       <c r="P28" s="12"/>
     </row>
     <row r="29" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="16"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="25">
+        <v>2400.8000000000002</v>
+      </c>
+      <c r="D29" s="16">
+        <v>27.503</v>
+      </c>
+      <c r="E29" s="19">
+        <v>2513.5</v>
+      </c>
+      <c r="F29" s="16">
+        <v>27.504000000000001</v>
+      </c>
+      <c r="G29" s="22">
+        <v>2661.3</v>
+      </c>
+      <c r="H29" s="16">
+        <v>27.501999999999999</v>
+      </c>
+      <c r="I29" s="19">
+        <v>2724.2</v>
+      </c>
+      <c r="J29" s="16">
+        <v>27.506</v>
+      </c>
+      <c r="K29" s="19">
+        <v>2790</v>
+      </c>
+      <c r="L29" s="32">
+        <v>27.504999999999999</v>
+      </c>
+      <c r="M29" s="19">
+        <v>2839.8</v>
+      </c>
+      <c r="N29" s="16">
+        <v>27.507000000000001</v>
+      </c>
       <c r="O29" s="1"/>
       <c r="P29" s="12"/>
     </row>
     <row r="30" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B30" s="33"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="25"/>
       <c r="D30" s="1"/>
       <c r="E30" s="19"/>
@@ -3819,7 +4055,7 @@
       <c r="P30" s="12"/>
     </row>
     <row r="31" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B31" s="34"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="26"/>
       <c r="D31" s="13"/>
       <c r="E31" s="20"/>
@@ -3836,20 +4072,20 @@
       <c r="P31" s="14"/>
     </row>
     <row r="32" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B32" s="36">
+      <c r="B32" s="40">
         <v>600</v>
       </c>
       <c r="C32" s="25">
-        <v>2419.4</v>
+        <v>2244.1999999999998</v>
       </c>
       <c r="D32" s="1">
-        <v>14.606</v>
-      </c>
-      <c r="E32" s="18">
-        <v>2493</v>
-      </c>
-      <c r="F32" s="15">
-        <v>14.606999999999999</v>
+        <v>11.609</v>
+      </c>
+      <c r="E32" s="19">
+        <v>2477.6999999999998</v>
+      </c>
+      <c r="F32" s="16">
+        <v>11.611000000000001</v>
       </c>
       <c r="G32" s="18">
         <v>2545.1999999999998</v>
@@ -3872,64 +4108,108 @@
       <c r="M32" s="18">
         <v>2728.9</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="27" t="s">
         <v>14</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="12"/>
     </row>
     <row r="33" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B33" s="36"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="25">
-        <v>2244.1999999999998</v>
-      </c>
-      <c r="D33" s="1">
-        <v>11.609</v>
+        <v>2361.9</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>23</v>
       </c>
       <c r="E33" s="19">
-        <v>2477.6999999999998</v>
+        <v>2530.4</v>
       </c>
       <c r="F33" s="16">
-        <v>11.611000000000001</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="16"/>
+        <v>12.605</v>
+      </c>
+      <c r="G33">
+        <v>2579.6999999999998</v>
+      </c>
+      <c r="H33" s="32">
+        <v>12.611000000000001</v>
+      </c>
+      <c r="I33" s="19">
+        <v>2671.8</v>
+      </c>
+      <c r="J33" s="16">
+        <v>12.606999999999999</v>
+      </c>
+      <c r="K33" s="19">
+        <v>2737.6</v>
+      </c>
+      <c r="L33" s="32">
+        <v>12.609</v>
+      </c>
+      <c r="M33" s="19">
+        <v>2788.3</v>
+      </c>
+      <c r="N33" s="16">
+        <v>12.608000000000001</v>
+      </c>
       <c r="O33" s="1"/>
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B34" s="36"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="25">
-        <v>2400.8000000000002</v>
-      </c>
-      <c r="D34" s="1">
-        <v>14.608000000000001</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="16"/>
+        <v>2339.6999999999998</v>
+      </c>
+      <c r="D34" s="32">
+        <v>13.605</v>
+      </c>
+      <c r="E34" s="19">
+        <v>2459.6999999999998</v>
+      </c>
+      <c r="F34" s="16">
+        <v>13.606999999999999</v>
+      </c>
+      <c r="G34" s="19">
+        <v>2562</v>
+      </c>
+      <c r="H34" s="32">
+        <v>13.606</v>
+      </c>
+      <c r="I34" s="19">
+        <v>2640.2</v>
+      </c>
+      <c r="J34" s="16">
+        <v>13.609</v>
+      </c>
+      <c r="K34" s="19">
+        <v>2704.2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>13.608000000000001</v>
+      </c>
+      <c r="M34" s="19">
+        <v>2744.2</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="O34" s="1"/>
       <c r="P34" s="12"/>
     </row>
     <row r="35" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B35" s="36"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="16"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="25">
+        <v>2419.4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>14.606</v>
+      </c>
+      <c r="E35" s="19">
+        <v>2493</v>
+      </c>
+      <c r="F35" s="16">
+        <v>14.606999999999999</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="19"/>
@@ -3942,9 +4222,13 @@
       <c r="P35" s="12"/>
     </row>
     <row r="36" spans="2:16" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B36" s="37"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="13"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="26">
+        <v>2400.8000000000002</v>
+      </c>
+      <c r="D36" s="13">
+        <v>14.608000000000001</v>
+      </c>
       <c r="E36" s="20"/>
       <c r="F36" s="17"/>
       <c r="G36" s="13"/>
@@ -3960,214 +4244,214 @@
     </row>
     <row r="37" spans="2:16" ht="24.95" customHeight="1"/>
     <row r="38" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B38" s="31">
+      <c r="B38" s="46">
         <v>43080</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
     </row>
     <row r="39" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B39" s="29"/>
-      <c r="C39" s="30" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
     </row>
     <row r="40" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
     </row>
     <row r="41" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
     </row>
     <row r="42" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
     </row>
     <row r="43" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
     </row>
     <row r="44" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
     </row>
     <row r="45" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
     </row>
     <row r="46" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
     </row>
     <row r="47" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
     </row>
     <row r="48" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
     </row>
     <row r="49" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -4179,9 +4463,6 @@
     <mergeCell ref="C42:P43"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="C44:P45"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B36"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="C40:P41"/>
     <mergeCell ref="B38:B39"/>
@@ -4198,6 +4479,9 @@
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="C38:P38"/>
     <mergeCell ref="C39:P39"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19906,764 +20190,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI48"/>
+  <dimension ref="A14:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1">
-        <v>2927.4126959632999</v>
-      </c>
-      <c r="B1">
-        <v>2908.2298660062602</v>
-      </c>
-      <c r="C1">
-        <v>2889.04703604923</v>
-      </c>
-      <c r="D1">
-        <v>2869.8642060921902</v>
-      </c>
-      <c r="E1">
-        <v>2850.68137613516</v>
-      </c>
-      <c r="F1">
-        <v>2831.4985461781298</v>
-      </c>
-      <c r="G1">
-        <v>2812.31571622109</v>
-      </c>
-      <c r="H1">
-        <v>2793.1328862640598</v>
-      </c>
-      <c r="I1">
-        <v>2773.9500563070201</v>
-      </c>
-      <c r="J1">
-        <v>2754.7672263499899</v>
-      </c>
-      <c r="K1">
-        <v>2735.5843963929501</v>
-      </c>
-      <c r="L1">
-        <v>2716.4015664359199</v>
-      </c>
-      <c r="M1">
-        <v>2697.2187364788801</v>
-      </c>
-      <c r="N1">
-        <v>2678.0359065218499</v>
-      </c>
-      <c r="O1">
-        <v>2658.8530765648102</v>
-      </c>
-      <c r="P1">
-        <v>2639.67024660778</v>
-      </c>
-      <c r="Q1">
-        <v>2620.4874166507402</v>
-      </c>
-      <c r="R1">
-        <v>2601.30458669371</v>
-      </c>
-      <c r="S1">
-        <v>2582.1217567366698</v>
-      </c>
-      <c r="T1">
-        <v>2562.93892677964</v>
-      </c>
-      <c r="U1">
-        <v>2543.7560968225998</v>
-      </c>
-      <c r="V1">
-        <v>2524.5732668655701</v>
-      </c>
-      <c r="W1">
-        <v>2505.3904369085399</v>
-      </c>
-      <c r="X1">
-        <v>2486.2076069515001</v>
-      </c>
-      <c r="Y1">
-        <v>2467.0247769944699</v>
-      </c>
-      <c r="Z1">
-        <v>2447.8419470374301</v>
-      </c>
-      <c r="AA1">
-        <v>2428.6591170803999</v>
-      </c>
-      <c r="AB1">
-        <v>2409.4762871233602</v>
-      </c>
-      <c r="AC1">
-        <v>2390.29345716633</v>
-      </c>
-      <c r="AD1">
-        <v>2371.1106272092902</v>
-      </c>
-      <c r="AE1">
-        <v>2351.92779725226</v>
-      </c>
-      <c r="AF1">
-        <v>2332.7449672952198</v>
-      </c>
-      <c r="AG1">
-        <v>2313.56213733819</v>
-      </c>
-      <c r="AH1">
-        <v>2294.3793073811498</v>
-      </c>
-      <c r="AI1">
-        <v>2275.1964774241201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
-      <c r="A2">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>35.5</v>
-      </c>
-      <c r="C2">
-        <v>36</v>
-      </c>
-      <c r="D2">
-        <v>36.5</v>
-      </c>
-      <c r="E2">
-        <v>37</v>
-      </c>
-      <c r="F2">
-        <v>37.5</v>
-      </c>
-      <c r="G2">
-        <v>38</v>
-      </c>
-      <c r="H2">
-        <v>38.5</v>
-      </c>
-      <c r="I2">
-        <v>39</v>
-      </c>
-      <c r="J2">
-        <v>39.5</v>
-      </c>
-      <c r="K2">
-        <v>40</v>
-      </c>
-      <c r="L2">
-        <v>40.5</v>
-      </c>
-      <c r="M2">
-        <v>41</v>
-      </c>
-      <c r="N2">
-        <v>41.5</v>
-      </c>
-      <c r="O2">
-        <v>42</v>
-      </c>
-      <c r="P2">
-        <v>42.5</v>
-      </c>
-      <c r="Q2">
-        <v>43</v>
-      </c>
-      <c r="R2">
-        <v>43.5</v>
-      </c>
-      <c r="S2">
-        <v>44</v>
-      </c>
-      <c r="T2">
-        <v>44.5</v>
-      </c>
-      <c r="U2">
-        <v>45</v>
-      </c>
-      <c r="V2">
-        <v>45.5</v>
-      </c>
-      <c r="W2">
-        <v>46</v>
-      </c>
-      <c r="X2">
-        <v>46.5</v>
-      </c>
-      <c r="Y2">
-        <v>47</v>
-      </c>
-      <c r="Z2">
-        <v>47.5</v>
-      </c>
-      <c r="AA2">
-        <v>48</v>
-      </c>
-      <c r="AB2">
-        <v>48.5</v>
-      </c>
-      <c r="AC2">
-        <v>49</v>
-      </c>
-      <c r="AD2">
-        <v>49.5</v>
-      </c>
-      <c r="AE2">
-        <v>50</v>
-      </c>
-      <c r="AF2">
-        <v>50.5</v>
-      </c>
-      <c r="AG2">
-        <v>51</v>
-      </c>
-      <c r="AH2">
-        <v>51.5</v>
-      </c>
-      <c r="AI2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
-      <c r="A3">
-        <v>3067.8776160716602</v>
-      </c>
-      <c r="B3">
-        <v>3042.6289157964302</v>
-      </c>
-      <c r="C3">
-        <v>3017.3802155212102</v>
-      </c>
-      <c r="D3">
-        <v>2992.1315152459902</v>
-      </c>
-      <c r="E3">
-        <v>2966.8828149707701</v>
-      </c>
-      <c r="F3">
-        <v>2941.6341146955401</v>
-      </c>
-      <c r="G3">
-        <v>2916.3854144203201</v>
-      </c>
-      <c r="H3">
-        <v>2891.1367141451001</v>
-      </c>
-      <c r="I3">
-        <v>2865.8880138698801</v>
-      </c>
-      <c r="J3">
-        <v>2840.6393135946601</v>
-      </c>
-      <c r="K3">
-        <v>2815.39061331943</v>
-      </c>
-      <c r="L3">
-        <v>2790.14191304421</v>
-      </c>
-      <c r="M3">
-        <v>2764.89321276899</v>
-      </c>
-      <c r="N3">
-        <v>2739.64451249377</v>
-      </c>
-      <c r="O3">
-        <v>2714.39581221855</v>
-      </c>
-      <c r="P3">
-        <v>2689.1471119433199</v>
-      </c>
-      <c r="Q3">
-        <v>2663.8984116680999</v>
-      </c>
-      <c r="R3">
-        <v>2638.6497113928799</v>
-      </c>
-      <c r="S3">
-        <v>2613.4010111176599</v>
-      </c>
-      <c r="T3">
-        <v>2588.1523108424399</v>
-      </c>
-      <c r="U3">
-        <v>2562.9036105672099</v>
-      </c>
-      <c r="V3">
-        <v>2537.6549102919898</v>
-      </c>
-      <c r="W3">
-        <v>2512.4062100167698</v>
-      </c>
-      <c r="X3">
-        <v>2487.1575097415498</v>
-      </c>
-      <c r="Y3">
-        <v>2461.9088094663198</v>
-      </c>
-      <c r="Z3">
-        <v>2436.6601091911002</v>
-      </c>
-      <c r="AA3">
-        <v>2411.4114089158802</v>
-      </c>
-      <c r="AB3">
-        <v>2386.1627086406602</v>
-      </c>
-      <c r="AC3">
-        <v>2360.9140083654402</v>
-      </c>
-      <c r="AD3">
-        <v>2335.6653080902101</v>
-      </c>
-      <c r="AE3">
-        <v>2310.4166078149901</v>
-      </c>
-      <c r="AF3">
-        <v>2285.1679075397701</v>
-      </c>
-      <c r="AG3">
-        <v>2259.9192072645501</v>
-      </c>
-      <c r="AH3">
-        <v>2234.6705069893301</v>
-      </c>
-      <c r="AI3">
-        <v>2209.4218067141001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
-      <c r="A4">
-        <v>3117.2200012305002</v>
-      </c>
-      <c r="B4">
-        <v>3087.2874150938001</v>
-      </c>
-      <c r="C4">
-        <v>3057.3548289570999</v>
-      </c>
-      <c r="D4">
-        <v>3027.4222428204098</v>
-      </c>
-      <c r="E4">
-        <v>2997.4896566837101</v>
-      </c>
-      <c r="F4">
-        <v>2967.55707054701</v>
-      </c>
-      <c r="G4">
-        <v>2937.6244844103098</v>
-      </c>
-      <c r="H4">
-        <v>2907.6918982736101</v>
-      </c>
-      <c r="I4">
-        <v>2877.75931213691</v>
-      </c>
-      <c r="J4">
-        <v>2847.8267260002199</v>
-      </c>
-      <c r="K4">
-        <v>2817.8941398635202</v>
-      </c>
-      <c r="L4">
-        <v>2787.9615537268201</v>
-      </c>
-      <c r="M4">
-        <v>2758.0289675901199</v>
-      </c>
-      <c r="N4">
-        <v>2728.0963814534198</v>
-      </c>
-      <c r="O4">
-        <v>2698.1637953167301</v>
-      </c>
-      <c r="P4">
-        <v>2668.23120918003</v>
-      </c>
-      <c r="Q4">
-        <v>2638.2986230433298</v>
-      </c>
-      <c r="R4">
-        <v>2608.3660369066301</v>
-      </c>
-      <c r="S4">
-        <v>2578.43345076993</v>
-      </c>
-      <c r="T4">
-        <v>2548.5008646332299</v>
-      </c>
-      <c r="U4">
-        <v>2518.5682784965402</v>
-      </c>
-      <c r="V4">
-        <v>2488.63569235984</v>
-      </c>
-      <c r="W4">
-        <v>2458.7031062231399</v>
-      </c>
-      <c r="X4">
-        <v>2428.7705200864398</v>
-      </c>
-      <c r="Y4">
-        <v>2398.8379339497401</v>
-      </c>
-      <c r="Z4">
-        <v>2368.90534781305</v>
-      </c>
-      <c r="AA4">
-        <v>2338.9727616763498</v>
-      </c>
-      <c r="AB4">
-        <v>2309.0401755396501</v>
-      </c>
-      <c r="AC4">
-        <v>2279.10758940295</v>
-      </c>
-      <c r="AD4">
-        <v>2249.1750032662499</v>
-      </c>
-      <c r="AE4">
-        <v>2219.2424171295502</v>
-      </c>
-      <c r="AF4">
-        <v>2189.30983099286</v>
-      </c>
-      <c r="AG4">
-        <v>2159.3772448561599</v>
-      </c>
-      <c r="AH4">
-        <v>2129.4446587194602</v>
-      </c>
-      <c r="AI4">
-        <v>2099.5120725827601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
-      <c r="A5">
-        <v>3239.6808328319898</v>
-      </c>
-      <c r="B5">
-        <v>3199.0703970876202</v>
-      </c>
-      <c r="C5">
-        <v>3158.4599613432501</v>
-      </c>
-      <c r="D5">
-        <v>3117.8495255988901</v>
-      </c>
-      <c r="E5">
-        <v>3077.23908985452</v>
-      </c>
-      <c r="F5">
-        <v>3036.6286541101499</v>
-      </c>
-      <c r="G5">
-        <v>2996.0182183657898</v>
-      </c>
-      <c r="H5">
-        <v>2955.4077826214202</v>
-      </c>
-      <c r="I5">
-        <v>2914.7973468770501</v>
-      </c>
-      <c r="J5">
-        <v>2874.1869111326801</v>
-      </c>
-      <c r="K5">
-        <v>2833.57647538832</v>
-      </c>
-      <c r="L5">
-        <v>2792.9660396439499</v>
-      </c>
-      <c r="M5">
-        <v>2752.3556038995798</v>
-      </c>
-      <c r="N5">
-        <v>2711.7451681552202</v>
-      </c>
-      <c r="O5">
-        <v>2671.1347324108501</v>
-      </c>
-      <c r="P5">
-        <v>2630.52429666648</v>
-      </c>
-      <c r="Q5">
-        <v>2589.91386092212</v>
-      </c>
-      <c r="R5">
-        <v>2549.3034251777499</v>
-      </c>
-      <c r="S5">
-        <v>2508.6929894333798</v>
-      </c>
-      <c r="T5">
-        <v>2468.0825536890202</v>
-      </c>
-      <c r="U5">
-        <v>2427.4721179446501</v>
-      </c>
-      <c r="V5">
-        <v>2386.86168220028</v>
-      </c>
-      <c r="W5">
-        <v>2346.2512464559099</v>
-      </c>
-      <c r="X5">
-        <v>2305.6408107115499</v>
-      </c>
-      <c r="Y5">
-        <v>2265.0303749671798</v>
-      </c>
-      <c r="Z5">
-        <v>2224.4199392228102</v>
-      </c>
-      <c r="AA5">
-        <v>2183.8095034784501</v>
-      </c>
-      <c r="AB5">
-        <v>2143.19906773408</v>
-      </c>
-      <c r="AC5">
-        <v>2102.5886319897099</v>
-      </c>
-      <c r="AD5">
-        <v>2061.9781962453499</v>
-      </c>
-      <c r="AE5">
-        <v>2021.36776050098</v>
-      </c>
-      <c r="AF5">
-        <v>1980.7573247566099</v>
-      </c>
-      <c r="AG5">
-        <v>1940.1468890122501</v>
-      </c>
-      <c r="AH5">
-        <v>1899.53645326788</v>
-      </c>
-      <c r="AI5">
-        <v>1858.9260175235099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6">
-        <v>3246.1568877561199</v>
-      </c>
-      <c r="B6">
-        <v>3202.82260788125</v>
-      </c>
-      <c r="C6">
-        <v>3159.48832800637</v>
-      </c>
-      <c r="D6">
-        <v>3116.1540481314901</v>
-      </c>
-      <c r="E6">
-        <v>3072.8197682566201</v>
-      </c>
-      <c r="F6">
-        <v>3029.4854883817402</v>
-      </c>
-      <c r="G6">
-        <v>2986.1512085068698</v>
-      </c>
-      <c r="H6">
-        <v>2942.8169286319899</v>
-      </c>
-      <c r="I6">
-        <v>2899.4826487571199</v>
-      </c>
-      <c r="J6">
-        <v>2856.14836888224</v>
-      </c>
-      <c r="K6">
-        <v>2812.8140890073701</v>
-      </c>
-      <c r="L6">
-        <v>2769.4798091324901</v>
-      </c>
-      <c r="M6">
-        <v>2726.1455292576202</v>
-      </c>
-      <c r="N6">
-        <v>2682.8112493827398</v>
-      </c>
-      <c r="O6">
-        <v>2639.4769695078699</v>
-      </c>
-      <c r="P6">
-        <v>2596.1426896329899</v>
-      </c>
-      <c r="Q6">
-        <v>2552.80840975812</v>
-      </c>
-      <c r="R6">
-        <v>2509.47412988324</v>
-      </c>
-      <c r="S6">
-        <v>2466.1398500083701</v>
-      </c>
-      <c r="T6">
-        <v>2422.8055701334902</v>
-      </c>
-      <c r="U6">
-        <v>2379.4712902586198</v>
-      </c>
-      <c r="V6">
-        <v>2336.1370103837398</v>
-      </c>
-      <c r="W6">
-        <v>2292.8027305088699</v>
-      </c>
-      <c r="X6">
-        <v>2249.46845063399</v>
-      </c>
-      <c r="Y6">
-        <v>2206.13417075912</v>
-      </c>
-      <c r="Z6">
-        <v>2162.7998908842401</v>
-      </c>
-      <c r="AA6">
-        <v>2119.4656110093701</v>
-      </c>
-      <c r="AB6">
-        <v>2076.1313311344902</v>
-      </c>
-      <c r="AC6">
-        <v>2032.79705125962</v>
-      </c>
-      <c r="AD6">
-        <v>1989.4627713847401</v>
-      </c>
-      <c r="AE6">
-        <v>1946.1284915098699</v>
-      </c>
-      <c r="AF6">
-        <v>1902.79421163499</v>
-      </c>
-      <c r="AG6">
-        <v>1859.4599317601201</v>
-      </c>
-      <c r="AH6">
-        <v>1816.1256518852399</v>
-      </c>
-      <c r="AI6">
-        <v>1772.79137201037</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7">
-        <v>3236.1940260029601</v>
-      </c>
-      <c r="B7">
-        <v>3188.5899318830002</v>
-      </c>
-      <c r="C7">
-        <v>3140.9858377630298</v>
-      </c>
-      <c r="D7">
-        <v>3093.38174364307</v>
-      </c>
-      <c r="E7">
-        <v>3045.7776495231101</v>
-      </c>
-      <c r="F7">
-        <v>2998.1735554031402</v>
-      </c>
-      <c r="G7">
-        <v>2950.5694612831799</v>
-      </c>
-      <c r="H7">
-        <v>2902.96536716322</v>
-      </c>
-      <c r="I7">
-        <v>2855.3612730432501</v>
-      </c>
-      <c r="J7">
-        <v>2807.7571789232902</v>
-      </c>
-      <c r="K7">
-        <v>2760.1530848033299</v>
-      </c>
-      <c r="L7">
-        <v>2712.54899068336</v>
-      </c>
-      <c r="M7">
-        <v>2664.9448965634001</v>
-      </c>
-      <c r="N7">
-        <v>2617.3408024434402</v>
-      </c>
-      <c r="O7">
-        <v>2569.7367083234699</v>
-      </c>
-      <c r="P7">
-        <v>2522.13261420351</v>
-      </c>
-      <c r="Q7">
-        <v>2474.5285200835501</v>
-      </c>
-      <c r="R7">
-        <v>2426.9244259635798</v>
-      </c>
-      <c r="S7">
-        <v>2379.3203318436199</v>
-      </c>
-      <c r="T7">
-        <v>2331.71623772366</v>
-      </c>
-      <c r="U7">
-        <v>2284.1121436036901</v>
-      </c>
-      <c r="V7">
-        <v>2236.5080494837298</v>
-      </c>
-      <c r="W7">
-        <v>2188.9039553637699</v>
-      </c>
-      <c r="X7">
-        <v>2141.2998612438</v>
-      </c>
-      <c r="Y7">
-        <v>2093.6957671238401</v>
-      </c>
-      <c r="Z7">
-        <v>2046.09167300388</v>
-      </c>
-      <c r="AA7">
-        <v>1998.4875788839099</v>
-      </c>
-      <c r="AB7">
-        <v>1950.88348476395</v>
-      </c>
-      <c r="AC7">
-        <v>1903.2793906439899</v>
-      </c>
-      <c r="AD7">
-        <v>1855.67529652402</v>
-      </c>
-      <c r="AE7">
-        <v>1808.0712024040599</v>
-      </c>
-      <c r="AF7">
-        <v>1760.4671082841</v>
-      </c>
-      <c r="AG7">
-        <v>1712.8630141641399</v>
-      </c>
-      <c r="AH7">
-        <v>1665.2589200441701</v>
-      </c>
-      <c r="AI7">
-        <v>1617.6548259242099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>2927.4126959632999</v>
       </c>
@@ -20709,7 +20244,7 @@
         <v>3236.1940260029601</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>2908.2298660062602</v>
       </c>
@@ -20755,7 +20290,7 @@
         <v>3188.5899318830002</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>2889.04703604923</v>
       </c>
@@ -22282,612 +21817,56 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A17:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F31" sqref="F21:F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1">
-        <v>2735.5843963929501</v>
-      </c>
-      <c r="B1">
-        <v>2716.4015664359199</v>
-      </c>
-      <c r="C1">
-        <v>2697.2187364788801</v>
-      </c>
-      <c r="D1">
-        <v>2678.0359065218499</v>
-      </c>
-      <c r="E1">
-        <v>2658.8530765648102</v>
-      </c>
-      <c r="F1">
-        <v>2639.67024660778</v>
-      </c>
-      <c r="G1">
-        <v>2620.4874166507402</v>
-      </c>
-      <c r="H1">
-        <v>2601.30458669371</v>
-      </c>
-      <c r="I1">
-        <v>2582.1217567366698</v>
-      </c>
-      <c r="J1">
-        <v>2562.93892677964</v>
-      </c>
-      <c r="K1">
-        <v>2543.7560968225998</v>
-      </c>
-      <c r="L1">
-        <v>2524.5732668655701</v>
-      </c>
-      <c r="M1">
-        <v>2505.3904369085399</v>
-      </c>
-      <c r="N1">
-        <v>2486.2076069515001</v>
-      </c>
-      <c r="O1">
-        <v>2467.0247769944699</v>
-      </c>
-      <c r="P1">
-        <v>2447.8419470374301</v>
-      </c>
-      <c r="Q1">
-        <v>2428.6591170803999</v>
-      </c>
-      <c r="R1">
-        <v>2409.4762871233602</v>
-      </c>
-      <c r="S1">
-        <v>2390.29345716633</v>
-      </c>
-      <c r="T1">
-        <v>2371.1106272092902</v>
-      </c>
-      <c r="U1">
-        <v>2351.92779725226</v>
-      </c>
-      <c r="V1">
-        <v>2332.7449672952198</v>
-      </c>
-      <c r="W1">
-        <v>2313.56213733819</v>
-      </c>
-      <c r="X1">
-        <v>2294.3793073811498</v>
-      </c>
-      <c r="Y1">
-        <v>2275.1964774241201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2">
-        <v>2916.3854144203201</v>
-      </c>
-      <c r="B2">
-        <v>2891.1367141451001</v>
-      </c>
-      <c r="C2">
-        <v>2865.8880138698801</v>
-      </c>
-      <c r="D2">
-        <v>2840.6393135946601</v>
-      </c>
-      <c r="E2">
-        <v>2815.39061331943</v>
-      </c>
-      <c r="F2">
-        <v>2790.14191304421</v>
-      </c>
-      <c r="G2">
-        <v>2764.89321276899</v>
-      </c>
-      <c r="H2">
-        <v>2739.64451249377</v>
-      </c>
-      <c r="I2">
-        <v>2714.39581221855</v>
-      </c>
-      <c r="J2">
-        <v>2689.1471119433199</v>
-      </c>
-      <c r="K2">
-        <v>2663.8984116680999</v>
-      </c>
-      <c r="L2">
-        <v>2638.6497113928799</v>
-      </c>
-      <c r="M2">
-        <v>2613.4010111176599</v>
-      </c>
-      <c r="N2">
-        <v>2588.1523108424399</v>
-      </c>
-      <c r="O2">
-        <v>2562.9036105672099</v>
-      </c>
-      <c r="P2">
-        <v>2537.6549102919898</v>
-      </c>
-      <c r="Q2">
-        <v>2512.4062100167698</v>
-      </c>
-      <c r="R2">
-        <v>2487.1575097415498</v>
-      </c>
-      <c r="S2">
-        <v>2461.9088094663198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3">
-        <v>2997.4896566837101</v>
-      </c>
-      <c r="B3">
-        <v>2967.55707054701</v>
-      </c>
-      <c r="C3">
-        <v>2937.6244844103098</v>
-      </c>
-      <c r="D3">
-        <v>2907.6918982736101</v>
-      </c>
-      <c r="E3">
-        <v>2877.75931213691</v>
-      </c>
-      <c r="F3">
-        <v>2847.8267260002199</v>
-      </c>
-      <c r="G3">
-        <v>2817.8941398635202</v>
-      </c>
-      <c r="H3">
-        <v>2787.9615537268201</v>
-      </c>
-      <c r="I3">
-        <v>2758.0289675901199</v>
-      </c>
-      <c r="J3">
-        <v>2728.0963814534198</v>
-      </c>
-      <c r="K3">
-        <v>2698.1637953167301</v>
-      </c>
-      <c r="L3">
-        <v>2668.23120918003</v>
-      </c>
-      <c r="M3">
-        <v>2638.2986230433298</v>
-      </c>
-      <c r="N3">
-        <v>2608.3660369066301</v>
-      </c>
-      <c r="O3">
-        <v>2578.43345076993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4">
-        <v>3158.4599613432501</v>
-      </c>
-      <c r="B4">
-        <v>3117.8495255988901</v>
-      </c>
-      <c r="C4">
-        <v>3077.23908985452</v>
-      </c>
-      <c r="D4">
-        <v>3036.6286541101499</v>
-      </c>
-      <c r="E4">
-        <v>2996.0182183657898</v>
-      </c>
-      <c r="F4">
-        <v>2955.4077826214202</v>
-      </c>
-      <c r="G4">
-        <v>2914.7973468770501</v>
-      </c>
-      <c r="H4">
-        <v>2874.1869111326801</v>
-      </c>
-      <c r="I4">
-        <v>2833.57647538832</v>
-      </c>
-      <c r="J4">
-        <v>2792.9660396439499</v>
-      </c>
-      <c r="K4">
-        <v>2752.3556038995798</v>
-      </c>
-      <c r="L4">
-        <v>2711.7451681552202</v>
-      </c>
-      <c r="M4">
-        <v>2671.1347324108501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5">
-        <v>3246.1568877561199</v>
-      </c>
-      <c r="B5">
-        <v>3202.82260788125</v>
-      </c>
-      <c r="C5">
-        <v>3159.48832800637</v>
-      </c>
-      <c r="D5">
-        <v>3116.1540481314901</v>
-      </c>
-      <c r="E5">
-        <v>3072.8197682566201</v>
-      </c>
-      <c r="F5">
-        <v>3029.4854883817402</v>
-      </c>
-      <c r="G5">
-        <v>2986.1512085068698</v>
-      </c>
-      <c r="H5">
-        <v>2942.8169286319899</v>
-      </c>
-      <c r="I5">
-        <v>2899.4826487571199</v>
-      </c>
-      <c r="J5">
-        <v>2856.14836888224</v>
-      </c>
-      <c r="K5">
-        <v>2812.8140890073701</v>
-      </c>
-      <c r="L5">
-        <v>2769.4798091324901</v>
-      </c>
-      <c r="M5">
-        <v>2726.1455292576202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6">
-        <v>3236.1940260029601</v>
-      </c>
-      <c r="B6">
-        <v>3188.5899318830002</v>
-      </c>
-      <c r="C6">
-        <v>3140.9858377630298</v>
-      </c>
-      <c r="D6">
-        <v>3093.38174364307</v>
-      </c>
-      <c r="E6">
-        <v>3045.7776495231101</v>
-      </c>
-      <c r="F6">
-        <v>2998.1735554031402</v>
-      </c>
-      <c r="G6">
-        <v>2950.5694612831799</v>
-      </c>
-      <c r="H6">
-        <v>2902.96536716322</v>
-      </c>
-      <c r="I6">
-        <v>2855.3612730432501</v>
-      </c>
-      <c r="J6">
-        <v>2807.7571789232902</v>
-      </c>
-      <c r="K6">
-        <v>2760.1530848033299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>40.5</v>
-      </c>
-      <c r="C7">
-        <v>41</v>
-      </c>
-      <c r="D7">
-        <v>41.5</v>
-      </c>
-      <c r="E7">
-        <v>42</v>
-      </c>
-      <c r="F7">
-        <v>42.5</v>
-      </c>
-      <c r="G7">
-        <v>43</v>
-      </c>
-      <c r="H7">
-        <v>43.5</v>
-      </c>
-      <c r="I7">
-        <v>44</v>
-      </c>
-      <c r="J7">
-        <v>44.5</v>
-      </c>
-      <c r="K7">
-        <v>45</v>
-      </c>
-      <c r="L7">
-        <v>45.5</v>
-      </c>
-      <c r="M7">
-        <v>46</v>
-      </c>
-      <c r="N7">
-        <v>46.5</v>
-      </c>
-      <c r="O7">
-        <v>47</v>
-      </c>
-      <c r="P7">
-        <v>47.5</v>
-      </c>
-      <c r="Q7">
-        <v>48</v>
-      </c>
-      <c r="R7">
-        <v>48.5</v>
-      </c>
-      <c r="S7">
-        <v>49</v>
-      </c>
-      <c r="T7">
-        <v>49.5</v>
-      </c>
-      <c r="U7">
-        <v>50</v>
-      </c>
-      <c r="V7">
-        <v>50.5</v>
-      </c>
-      <c r="W7">
-        <v>51</v>
-      </c>
-      <c r="X7">
-        <v>51.5</v>
-      </c>
-      <c r="Y7">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <v>38.5</v>
-      </c>
-      <c r="C8">
-        <v>39</v>
-      </c>
-      <c r="D8">
-        <v>39.5</v>
-      </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <v>40.5</v>
-      </c>
-      <c r="G8">
-        <v>41</v>
-      </c>
-      <c r="H8">
-        <v>41.5</v>
-      </c>
-      <c r="I8">
-        <v>42</v>
-      </c>
-      <c r="J8">
-        <v>42.5</v>
-      </c>
-      <c r="K8">
-        <v>43</v>
-      </c>
-      <c r="L8">
-        <v>43.5</v>
-      </c>
-      <c r="M8">
-        <v>44</v>
-      </c>
-      <c r="N8">
-        <v>44.5</v>
-      </c>
-      <c r="O8">
-        <v>45</v>
-      </c>
-      <c r="P8">
-        <v>45.5</v>
-      </c>
-      <c r="Q8">
-        <v>46</v>
-      </c>
-      <c r="R8">
-        <v>46.5</v>
-      </c>
-      <c r="S8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9">
-        <v>37</v>
-      </c>
-      <c r="B9">
-        <v>37.5</v>
-      </c>
-      <c r="C9">
-        <v>38</v>
-      </c>
-      <c r="D9">
-        <v>38.5</v>
-      </c>
-      <c r="E9">
-        <v>39</v>
-      </c>
-      <c r="F9">
-        <v>39.5</v>
-      </c>
-      <c r="G9">
-        <v>40</v>
-      </c>
-      <c r="H9">
-        <v>40.5</v>
-      </c>
-      <c r="I9">
-        <v>41</v>
-      </c>
-      <c r="J9">
-        <v>41.5</v>
-      </c>
-      <c r="K9">
-        <v>42</v>
-      </c>
-      <c r="L9">
-        <v>42.5</v>
-      </c>
-      <c r="M9">
-        <v>43</v>
-      </c>
-      <c r="N9">
-        <v>43.5</v>
-      </c>
-      <c r="O9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>36.5</v>
-      </c>
-      <c r="C10">
-        <v>37</v>
-      </c>
-      <c r="D10">
-        <v>37.5</v>
-      </c>
-      <c r="E10">
-        <v>38</v>
-      </c>
-      <c r="F10">
-        <v>38.5</v>
-      </c>
-      <c r="G10">
-        <v>39</v>
-      </c>
-      <c r="H10">
-        <v>39.5</v>
-      </c>
-      <c r="I10">
-        <v>40</v>
-      </c>
-      <c r="J10">
-        <v>40.5</v>
-      </c>
-      <c r="K10">
-        <v>41</v>
-      </c>
-      <c r="L10">
-        <v>41.5</v>
-      </c>
-      <c r="M10">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11">
-        <v>35</v>
-      </c>
-      <c r="B11">
-        <v>35.5</v>
-      </c>
-      <c r="C11">
-        <v>36</v>
-      </c>
-      <c r="D11">
-        <v>36.5</v>
-      </c>
-      <c r="E11">
-        <v>37</v>
-      </c>
-      <c r="F11">
-        <v>37.5</v>
-      </c>
-      <c r="G11">
-        <v>38</v>
-      </c>
-      <c r="H11">
-        <v>38.5</v>
-      </c>
-      <c r="I11">
-        <v>39</v>
-      </c>
-      <c r="J11">
-        <v>39.5</v>
-      </c>
-      <c r="K11">
-        <v>40</v>
-      </c>
-      <c r="L11">
-        <v>40.5</v>
-      </c>
-      <c r="M11">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>35.5</v>
-      </c>
-      <c r="C12">
-        <v>36</v>
-      </c>
-      <c r="D12">
-        <v>36.5</v>
-      </c>
-      <c r="E12">
-        <v>37</v>
-      </c>
-      <c r="F12">
-        <v>37.5</v>
-      </c>
-      <c r="G12">
-        <v>38</v>
-      </c>
-      <c r="H12">
-        <v>38.5</v>
-      </c>
-      <c r="I12">
-        <v>39</v>
-      </c>
-      <c r="J12">
-        <v>39.5</v>
-      </c>
-      <c r="K12">
-        <v>40</v>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>4066.5</v>
+      </c>
+      <c r="B17">
+        <v>4066.5</v>
+      </c>
+      <c r="C17">
+        <v>4066.5</v>
+      </c>
+      <c r="D17">
+        <v>4064.3</v>
+      </c>
+      <c r="E17">
+        <v>4062.8</v>
+      </c>
+      <c r="F17">
+        <v>4059.7</v>
+      </c>
+      <c r="G17">
+        <v>4058.4</v>
+      </c>
+      <c r="H17">
+        <v>4056.9</v>
+      </c>
+      <c r="I17">
+        <v>4055.6</v>
+      </c>
+      <c r="J17">
+        <v>4054.7</v>
+      </c>
+      <c r="K17">
+        <v>4053.5</v>
+      </c>
+      <c r="L17">
+        <v>4052.5</v>
+      </c>
+      <c r="M17">
+        <v>4051.6</v>
+      </c>
+      <c r="N17">
+        <v>4050.7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -23807,5 +22786,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>